--- a/biology/Botanique/Sabal_domingensis/Sabal_domingensis.xlsx
+++ b/biology/Botanique/Sabal_domingensis/Sabal_domingensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Latanier-chapeau
 Sabal domingensis est une espèce de plantes de la famille des Arecaceae (palmiers) originaire de l'île d'Hispaniola. Elle appartient au genre Sabal. Elle est réputée paradoxalement pour son excellente résistance au froid.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand palmier au tronc très épais pouvant dépasser 10m de hauteur. C'est un des plus gros représentant du genre Sabal.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On a longtemps cru l'espèce endémique de l'île d'Hispaniola, mais des individus sauvages ont été récemment[Quand ?] découvert à Cuba.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De bonne résistance à la sécheresse et au gel, Sabal domingensis est capable de supporter sans dommages des gels de -7 °C à -8 °C dès le stade juvénile.
 </t>
